--- a/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
+++ b/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:44:22+00:00</t>
+    <t>2025-12-05T08:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
+++ b/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:48:00+00:00</t>
+    <t>2025-12-05T09:22:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
+++ b/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:24:40+00:00</t>
+    <t>2025-12-29T09:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
+++ b/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:23:18+00:00</t>
+    <t>2025-12-29T09:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
+++ b/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:56:40+00:00</t>
+    <t>2025-12-29T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
+++ b/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:13:00+00:00</t>
+    <t>2025-12-29T10:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
+++ b/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:22:56+00:00</t>
+    <t>2025-12-29T10:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
+++ b/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:23:39+00:00</t>
+    <t>2025-12-29T10:37:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
+++ b/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:37:03+00:00</t>
+    <t>2025-12-29T10:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
+++ b/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:57:12+00:00</t>
+    <t>2025-12-29T16:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
+++ b/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:37:53+00:00</t>
+    <t>2025-12-29T16:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
+++ b/nr-update-priorities/ig/ValueSet-fr-core-vs-availability-time-rule.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:39:07+00:00</t>
+    <t>2025-12-29T16:43:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
